--- a/用紙管理/【設計】用紙管理仕様書.xlsx
+++ b/用紙管理/【設計】用紙管理仕様書.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\用紙管理\systemv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5D88A-5647-484B-B3C0-C121A3190F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A640D2C-CA0C-474C-9BC2-B04D2BD7BFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様概要" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -774,10 +775,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B1082E-9268-46FB-A8C0-A17CAD118E55}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -990,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D13</f>
+        <f t="shared" ref="G13:G20" si="1">"&amp;"&amp;$C$13&amp;D13</f>
         <v>&amp;K工程</v>
       </c>
     </row>
@@ -1005,7 +1022,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D14</f>
+        <f t="shared" si="1"/>
         <v>&amp;K工程順</v>
       </c>
     </row>
@@ -1020,7 +1037,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D15</f>
+        <f t="shared" si="1"/>
         <v>&amp;K用紙ID</v>
       </c>
     </row>
@@ -1037,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D16</f>
+        <f t="shared" si="1"/>
         <v>&amp;K銘柄</v>
       </c>
     </row>
@@ -1052,7 +1069,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D17</f>
+        <f t="shared" si="1"/>
         <v>&amp;Kサブ銘柄</v>
       </c>
     </row>
@@ -1067,7 +1084,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D18</f>
+        <f t="shared" si="1"/>
         <v>&amp;K用紙サイズ</v>
       </c>
     </row>
@@ -1082,7 +1099,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D19</f>
+        <f t="shared" si="1"/>
         <v>&amp;K重さ</v>
       </c>
     </row>
@@ -1097,7 +1114,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D20</f>
+        <f t="shared" si="1"/>
         <v>&amp;K目</v>
       </c>
     </row>
@@ -1171,7 +1188,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="str">
-        <f t="shared" ref="G24:G26" si="1">"&amp;"&amp;$C$23&amp;D24</f>
+        <f t="shared" ref="G24:G26" si="2">"&amp;"&amp;$C$23&amp;D24</f>
         <v>&amp;H発注ID</v>
       </c>
     </row>
@@ -1186,7 +1203,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&amp;Hステータス</v>
       </c>
     </row>
@@ -1201,7 +1218,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&amp;H入庫日</v>
       </c>
     </row>
